--- a/medicine/Médecine vétérinaire/Leishmania/Leishmania.xlsx
+++ b/medicine/Médecine vétérinaire/Leishmania/Leishmania.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Leishmania est un genre de Protozoaire proche des trypanosomes. C'est un parasite des mammifères transmis par la piqure de phlébotomes et responsable d'une maladie, la leishmaniose. Il existe plus de 20 espèces de Leishmania.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On retrouve des fossiles de Leishmania datant de 100 millions d'années. Déjà à cette période, il s'agissait d'un parisite des vertébrés, transmis par la piqûre d'insectes hématophages[1].
-Les premières observations de parasites du genre Leishmania datent du 19e siècle, avec celle du médecin David Douglas Cunningham en 1885, et la celle de Piotr Fokich Borovsky en 1898[1]. C'est en 1903 que le pathologiste écossais William Boog Leishman le décrit[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On retrouve des fossiles de Leishmania datant de 100 millions d'années. Déjà à cette période, il s'agissait d'un parisite des vertébrés, transmis par la piqûre d'insectes hématophages.
+Les premières observations de parasites du genre Leishmania datent du 19e siècle, avec celle du médecin David Douglas Cunningham en 1885, et la celle de Piotr Fokich Borovsky en 1898. C'est en 1903 que le pathologiste écossais William Boog Leishman le décrit. 
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2023, l'OMS estime que les Leishmania infectent 700 000 à 1 million d'humains chaque année[3]. Plus de 20 espèces différentes de Leishmania peuvent parasiter l'humain.
-Certaines leishmanioses touchent d'autres mammifères, comme les rongeurs, les canidés et les marsupiaux[4]. Par exemple, la leishmaniose canine (en) affecte les chiens en Europe autour de la Méditerranée[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2023, l'OMS estime que les Leishmania infectent 700 000 à 1 million d'humains chaque année. Plus de 20 espèces différentes de Leishmania peuvent parasiter l'humain.
+Certaines leishmanioses touchent d'autres mammifères, comme les rongeurs, les canidés et les marsupiaux. Par exemple, la leishmaniose canine (en) affecte les chiens en Europe autour de la Méditerranée.
 </t>
         </is>
       </c>
@@ -576,20 +592,22 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les détails de l'évolution du genre Leishmania ne sont pas très clairs, mais il est supposé qu'il ait une origine commune ancestrale avec le genre Trypanosoma. Le plus ancien taxon est celui de la famille des Bodonidae suivi par Trypanosoma brucei : ces espèces récentes sont limitées au continent africain. Le groupe de  Trypanosoma cruzi avec les trypanosomes présents chez des chauves-souris, des mammifères de l'Amérique du Sud et chez des kangourous suggèrent une origine dans l'hémisphère sud.
-Les sous-groupes restants sont Blastocrithidia, Herpetomonas et Phytomonas. Les quatre genres Leptomonas, Crithidia, Leishmania et Endotrypanum semblent avoir une origine commune[6].
-Les origines du genre Leishmania ne sont pas suffisamment définies[7],[8].
-Une hypothèse propose une origine africaine, avec une migration vers les Amériques. Une autre hypothèse propose la migration des Amériques, il y a 15 millions d'années, traversant le détroit de Béring. Une autre théorie propose une origine paléarctique[9],[10]. C'est bien la cause des épidémies actuellement beaucoup plus évidentes[11],[12].
-Un autre sous-groupe proche de Leishmania est Paraleishmania[13].
+Les sous-groupes restants sont Blastocrithidia, Herpetomonas et Phytomonas. Les quatre genres Leptomonas, Crithidia, Leishmania et Endotrypanum semblent avoir une origine commune.
+Les origines du genre Leishmania ne sont pas suffisamment définies,.
+Une hypothèse propose une origine africaine, avec une migration vers les Amériques. Une autre hypothèse propose la migration des Amériques, il y a 15 millions d'années, traversant le détroit de Béring. Une autre théorie propose une origine paléarctique,. C'est bien la cause des épidémies actuellement beaucoup plus évidentes,.
+Un autre sous-groupe proche de Leishmania est Paraleishmania.
 Portion de texte anglais à traduire en français
 Texte anglais à traduire :
 It is spread through sandflies of the genus Phlebotomus in the Old World, and of the genus Lutzomyia in the New World.  They primary hosts is a vertebrate; Leishmania commonly infects hyraxes, canids, rodents, and humans.  Leishmania currently affects 12 million people in 88 countries.
 Leishmania cells have two morphological forms: promastigote (with an anterior flagellum) in the insect host, and amastigote (without flagella) in the vertebrate host.  Infections are regarded as cutaneous, mucocutaneous, or visceral:
 Cutaneous (localized and diffuse) infections appear as obvious skin reactions.  The most common is the Oriental Sore (caused by Old World species L. major, L. tropica, and L. aethiopica).  In the New World, the most common culprits are L. mexicana and L. (Viannia) braziliensis.   Cutaneous infections are most common in Afghanistan, Brésil, Iran, Pérou, Saudi Arabia and Syria.
 Mucocutaneous (espundia) infections will start off as a reaction at the bite, and can go metastasis into the mucous membrane and become fatal.  Mucocutaneous infections are most common in Bolivia, Brazil and Peru.
-Visceral infections are often recognized by fever, weight loss, swelling of the liver and spleen, and anemia.  They are known by many local names, of which the most common is probably Kala azar [1] [2], and are caused exclusively by species of the L. donovani complex (L. donovani, L. infantum syn. L. chagasi).   Visceral infections are most common in Bangladesh, Brazil, India, Nepal and Sudan.
+Visceral infections are often recognized by fever, weight loss, swelling of the liver and spleen, and anemia.  They are known by many local names, of which the most common is probably Kala azar  , and are caused exclusively by species of the L. donovani complex (L. donovani, L. infantum syn. L. chagasi).   Visceral infections are most common in Bangladesh, Brazil, India, Nepal and Sudan.
 An important aspect of the Leishmania protozoan is its glyconjugate layer of liphosphoglycan (LPG).  This is held together with a phosphoinosite membrane anchor, and has a tripartite structure consisting of a lipid domain, a neutral hexasaccharide, and a phosphrorylated galactose-mannose, with a termination in a neutral cap.  Not only do the little unfriendlies not develop post-phlebotomus digestion but, it is thought to be essential to oxidative bursts, thus allowing passage for infection.  Chararacteristics of digestion include an endosome fusing with a lysosome, releasing acid hydrolases which degrade DNA, RNA, proteins and carbohydrates.
 Treatments of the disease generally involve a solution containing antimoine, which is toxic.  A solution which breaks down the LPG is also a form of treatment being looked at.  Those who feel they are infected should seek immediate attention.  Transmission is mainly through the bite of sand flies but also through needle-sharing by drugs users.  Most at risk are humans infected with HIV, canines and rodents.
 The origins of Leishmania are a well thought out subject. Theories vary. One proposes an African orgin, with migration to the Americas. Another migration from the Americas to the Old World about 15My ago, accross the Bering Strait land bridge. Another proposes a palaearctic origin. Such migrations would entail migration of vector and reservoir or successive adaptations along the way. A more recent migration is that of L. infantum from Mediterranean countries to Latin America (there named L. chagasi), since European colonization of the New World, where the parasites picked up its current New World vectors in their respective ecologies.  This is the cause of the epidemics now evident. One recent New World epidemic concerns foxhounds in the USA.
@@ -622,17 +640,19 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il y a de nombreuses espèces différentes. De plus, il peut exister des hybrides entre espèces ; un hybride possible a été signalé au Brésil entre Leishmania (V.) guyanensis et Leishmania (V.) shawi shawi[14].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Il y a de nombreuses espèces différentes. De plus, il peut exister des hybrides entre espèces ; un hybride possible a été signalé au Brésil entre Leishmania (V.) guyanensis et Leishmania (V.) shawi shawi.
 Liste partielle des espèces :
 Leishmania aethiopica
 Leishmania amazonensis
 Leishmania arabica
-Leishmania archibaldi (discutable)[15]
+Leishmania archibaldi (discutable)
 Leishmania aristedes
 Leishmania (Viannia) braziliensis
-Leishmania chagasi (= Leishmania infantum)[16]
+Leishmania chagasi (= Leishmania infantum)
 Leishmania (Viannia) colombiensis
 Leishmania deanei
 Leishmania donovani
@@ -645,10 +665,10 @@
 Leishmania herreri
 Leishmania hertigi
 Leishmania infantum
-Leishmania killicki (discutable)[17]
+Leishmania killicki (discutable)
 Leishmania (Viannia) lainsoni
 Leishmania major
-Leishmania martiniquensis[18]
+Leishmania martiniquensis
 Leishmania mexicana
 Leishmania (Viannia) naiffi
 Leishmania (Viannia) panamensis
